--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709895.134358732</v>
+        <v>702647.5549636595</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9250114.296495751</v>
+        <v>9250114.296495749</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7735008.423835565</v>
+        <v>7735008.423835562</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9142046.445219157</v>
+        <v>9142046.445219159</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>45.98473533007512</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>61.80474195134732</v>
       </c>
       <c r="S2" t="n">
         <v>177.0734480055617</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>327.5039742688826</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.9910380206319</v>
       </c>
       <c r="I3" t="n">
-        <v>63.57075238159808</v>
+        <v>63.57075238159806</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.58571135891959</v>
       </c>
       <c r="S3" t="n">
-        <v>157.7503553344525</v>
+        <v>18.85508266469074</v>
       </c>
       <c r="T3" t="n">
-        <v>111.8317299124157</v>
+        <v>197.1412912232596</v>
       </c>
       <c r="U3" t="n">
         <v>225.8920332647905</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.97550871219535</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>115.0942979546612</v>
       </c>
       <c r="G4" t="n">
         <v>167.3621190341859</v>
@@ -838,7 +838,7 @@
         <v>136.5389299027613</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.89875519058049</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.0175444330455</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>144.5715183052897</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.9008012965642</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>325.1172228173282</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>156.4277435039525</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>61.80474195134732</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>177.0734480055617</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>212.9547778410747</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.9910380206319</v>
       </c>
       <c r="I6" t="n">
-        <v>63.57075238159808</v>
+        <v>63.57075238159806</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>53.58571135891959</v>
       </c>
       <c r="S6" t="n">
-        <v>72.44079402360877</v>
+        <v>157.7503553344525</v>
       </c>
       <c r="T6" t="n">
         <v>197.1412912232596</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8920332647905</v>
+        <v>86.99676059502875</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3621190341859</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>107.5718080201832</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>136.5389299027613</v>
+        <v>18.6891261031495</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.50356646189934</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>213.0572776585077</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.2586407700247</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>199.2279499583018</v>
       </c>
       <c r="V8" t="n">
-        <v>130.7654382931239</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,10 +1224,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>110.9728016511694</v>
       </c>
       <c r="H9" t="n">
-        <v>74.81263606344126</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>51.34162924275372</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>148.2932254634417</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.1298577207905</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>227.7569603098099</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>144.8586974472227</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>195.9404637567435</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>96.32910255414907</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>208.2474868886328</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>245.3924319518751</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>137.7560160697395</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>117.4430581841135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,22 +2081,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>121.9402165530812</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>18.77002641862864</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>56.6086046737284</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.781160222249364</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.41653965146573</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>171.1971464172155</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,16 +2558,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>193.1994278308463</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.3924319518751</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>71.73256354622403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.3387326418232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>193.1994278308467</v>
+        <v>193.1994278308463</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="T31" t="n">
         <v>220.7486959972119</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>129.1225605509788</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>352.3007933872228</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>125.9464352548406</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -3089,10 +3089,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>57.54882572755182</v>
       </c>
       <c r="F34" t="n">
-        <v>64.57009008111716</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>193.1994278308467</v>
+        <v>193.1994278308463</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>85.36610313819132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.21619667811729</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>193.1994278308467</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>210.1426356599065</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
-        <v>54.99283228938624</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>282.3894018905156</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>84.79527148983814</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>23.59258665411652</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>64.57009008111716</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>232.610493895996</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>208.2474868886327</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>60.24399451265899</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.03465672501351</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>466.6585311145513</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>97.69601417413958</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>97.69601417413958</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E2" t="n">
-        <v>97.69601417413958</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F2" t="n">
-        <v>97.69601417413958</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G2" t="n">
-        <v>97.69601417413958</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>157.2146983965565</v>
+        <v>157.2146983965567</v>
       </c>
       <c r="K2" t="n">
-        <v>436.7779331278826</v>
+        <v>436.777933127883</v>
       </c>
       <c r="L2" t="n">
-        <v>835.8774740265421</v>
+        <v>835.8774740265428</v>
       </c>
       <c r="M2" t="n">
-        <v>1296.559156998187</v>
+        <v>1296.559156998188</v>
       </c>
       <c r="N2" t="n">
-        <v>1750.063153682371</v>
+        <v>1750.063153682372</v>
       </c>
       <c r="O2" t="n">
-        <v>2133.106480061284</v>
+        <v>2133.106480061285</v>
       </c>
       <c r="P2" t="n">
-        <v>2422.350714197591</v>
+        <v>2422.350714197593</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400154</v>
+        <v>2499.910296126068</v>
       </c>
       <c r="S2" t="n">
-        <v>2383.477259707668</v>
+        <v>2321.048227433582</v>
       </c>
       <c r="T2" t="n">
-        <v>2164.326882164903</v>
+        <v>2101.897849890817</v>
       </c>
       <c r="U2" t="n">
-        <v>1910.555672053438</v>
+        <v>1848.126639779351</v>
       </c>
       <c r="V2" t="n">
-        <v>1579.492784709867</v>
+        <v>1517.063752435781</v>
       </c>
       <c r="W2" t="n">
-        <v>1226.724129439753</v>
+        <v>1186.251657214687</v>
       </c>
       <c r="X2" t="n">
-        <v>853.2583711786731</v>
+        <v>1186.251657214687</v>
       </c>
       <c r="Y2" t="n">
-        <v>853.2583711786731</v>
+        <v>796.1123252388754</v>
       </c>
     </row>
     <row r="3">
@@ -4404,37 +4404,37 @@
         <v>115.4596677615365</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K3" t="n">
-        <v>210.9133886556568</v>
+        <v>296.518120746182</v>
       </c>
       <c r="L3" t="n">
-        <v>602.1153621076629</v>
+        <v>687.7200941981882</v>
       </c>
       <c r="M3" t="n">
-        <v>1110.60883496143</v>
+        <v>1196.213567051956</v>
       </c>
       <c r="N3" t="n">
-        <v>1648.267630359542</v>
+        <v>1733.872362450068</v>
       </c>
       <c r="O3" t="n">
-        <v>2073.704709726014</v>
+        <v>2159.30944181654</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.152405435664</v>
+        <v>2483.75713752619</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400154</v>
+        <v>2508.212347229531</v>
       </c>
       <c r="S3" t="n">
-        <v>2402.995535133031</v>
+        <v>2489.166809184389</v>
       </c>
       <c r="T3" t="n">
         <v>2290.034191787156</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="C4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="D4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="E4" t="n">
-        <v>516.4357577502224</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="F4" t="n">
-        <v>516.4357577502224</v>
+        <v>565.8284397609096</v>
       </c>
       <c r="G4" t="n">
-        <v>347.3831122611456</v>
+        <v>396.775794271833</v>
       </c>
       <c r="H4" t="n">
-        <v>189.1648975808933</v>
+        <v>238.5575795915807</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800309</v>
+        <v>100.6394685786905</v>
       </c>
       <c r="J4" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K4" t="n">
-        <v>101.5315041582451</v>
+        <v>101.5315041582452</v>
       </c>
       <c r="L4" t="n">
-        <v>221.4050648543854</v>
+        <v>221.4050648543856</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1840501895422</v>
+        <v>358.1840501895425</v>
       </c>
       <c r="N4" t="n">
-        <v>497.1453533913462</v>
+        <v>497.1453533913467</v>
       </c>
       <c r="O4" t="n">
-        <v>609.4823129223975</v>
+        <v>609.482312922398</v>
       </c>
       <c r="P4" t="n">
-        <v>682.0853063817789</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="Q4" t="n">
-        <v>682.0853063817789</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="R4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="S4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="T4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="U4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="V4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="W4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="X4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.5625342271874</v>
+        <v>682.0853063817796</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>955.7374609294627</v>
       </c>
       <c r="C5" t="n">
-        <v>1412.134398099142</v>
+        <v>955.7374609294627</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.102561427132</v>
+        <v>955.7374609294627</v>
       </c>
       <c r="E5" t="n">
-        <v>880.3143088288875</v>
+        <v>955.7374609294627</v>
       </c>
       <c r="F5" t="n">
-        <v>469.32840403928</v>
+        <v>955.7374609294627</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>209.2546082891673</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>157.2146983965566</v>
+        <v>157.2146983965567</v>
       </c>
       <c r="K5" t="n">
-        <v>436.7779331278826</v>
+        <v>436.777933127883</v>
       </c>
       <c r="L5" t="n">
-        <v>835.8774740265426</v>
+        <v>835.8774740265428</v>
       </c>
       <c r="M5" t="n">
         <v>1296.559156998188</v>
@@ -4580,37 +4580,37 @@
         <v>1750.063153682372</v>
       </c>
       <c r="O5" t="n">
-        <v>2133.106480061284</v>
+        <v>2133.106480061285</v>
       </c>
       <c r="P5" t="n">
-        <v>2422.350714197592</v>
+        <v>2422.350714197593</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2499.910296126068</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2321.048227433582</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2321.048227433582</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2105.942391230476</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2105.942391230476</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2105.942391230476</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1732.476632969396</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1342.337300993584</v>
       </c>
     </row>
     <row r="6">
@@ -4635,46 +4635,46 @@
         <v>359.4843679411731</v>
       </c>
       <c r="G6" t="n">
-        <v>221.5112213177304</v>
+        <v>221.5112213177303</v>
       </c>
       <c r="H6" t="n">
         <v>115.4596677615365</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6671692172148</v>
+        <v>120.6671692172149</v>
       </c>
       <c r="K6" t="n">
-        <v>365.9385033953936</v>
+        <v>365.9385033953938</v>
       </c>
       <c r="L6" t="n">
-        <v>757.1404768473997</v>
+        <v>757.1404768474</v>
       </c>
       <c r="M6" t="n">
         <v>1265.633949701167</v>
       </c>
       <c r="N6" t="n">
-        <v>1803.292745099279</v>
+        <v>1803.29274509928</v>
       </c>
       <c r="O6" t="n">
-        <v>2228.729824465751</v>
+        <v>2073.704709726016</v>
       </c>
       <c r="P6" t="n">
-        <v>2553.177520175401</v>
+        <v>2398.152405435666</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2508.212347229531</v>
       </c>
       <c r="S6" t="n">
-        <v>2489.166809184389</v>
+        <v>2348.868553962407</v>
       </c>
       <c r="T6" t="n">
-        <v>2290.034191787156</v>
+        <v>2149.735936565175</v>
       </c>
       <c r="U6" t="n">
         <v>2061.860420812621</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.875935009549</v>
+        <v>239.0608746506065</v>
       </c>
       <c r="C7" t="n">
-        <v>466.875935009549</v>
+        <v>70.12469172269959</v>
       </c>
       <c r="D7" t="n">
-        <v>466.875935009549</v>
+        <v>70.12469172269959</v>
       </c>
       <c r="E7" t="n">
-        <v>466.875935009549</v>
+        <v>70.12469172269959</v>
       </c>
       <c r="F7" t="n">
-        <v>466.875935009549</v>
+        <v>70.12469172269959</v>
       </c>
       <c r="G7" t="n">
-        <v>297.8232895204723</v>
+        <v>70.12469172269959</v>
       </c>
       <c r="H7" t="n">
-        <v>189.1648975808933</v>
+        <v>70.12469172269959</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K7" t="n">
-        <v>101.5315041582451</v>
+        <v>101.5315041582452</v>
       </c>
       <c r="L7" t="n">
-        <v>221.4050648543855</v>
+        <v>221.4050648543856</v>
       </c>
       <c r="M7" t="n">
-        <v>358.1840501895423</v>
+        <v>358.1840501895425</v>
       </c>
       <c r="N7" t="n">
-        <v>497.1453533913464</v>
+        <v>497.1453533913467</v>
       </c>
       <c r="O7" t="n">
-        <v>609.4823129223976</v>
+        <v>609.482312922398</v>
       </c>
       <c r="P7" t="n">
-        <v>682.085306381779</v>
+        <v>682.0853063817796</v>
       </c>
       <c r="Q7" t="n">
-        <v>682.085306381779</v>
+        <v>648.2433200566287</v>
       </c>
       <c r="R7" t="n">
-        <v>682.085306381779</v>
+        <v>648.2433200566287</v>
       </c>
       <c r="S7" t="n">
-        <v>466.875935009549</v>
+        <v>648.2433200566287</v>
       </c>
       <c r="T7" t="n">
-        <v>466.875935009549</v>
+        <v>420.7093394808462</v>
       </c>
       <c r="U7" t="n">
-        <v>466.875935009549</v>
+        <v>420.7093394808462</v>
       </c>
       <c r="V7" t="n">
-        <v>466.875935009549</v>
+        <v>420.7093394808462</v>
       </c>
       <c r="W7" t="n">
-        <v>466.875935009549</v>
+        <v>420.7093394808462</v>
       </c>
       <c r="X7" t="n">
-        <v>466.875935009549</v>
+        <v>420.7093394808462</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.875935009549</v>
+        <v>420.7093394808462</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2430.253027093969</v>
+        <v>858.1253893357946</v>
       </c>
       <c r="C8" t="n">
-        <v>2061.290510153558</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="D8" t="n">
-        <v>1703.024811546807</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="E8" t="n">
-        <v>1317.236558948563</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="F8" t="n">
-        <v>906.2506541589553</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="G8" t="n">
         <v>489.1628723953828</v>
@@ -4799,55 +4799,55 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>239.8866855817394</v>
+        <v>72.48103656138643</v>
       </c>
       <c r="K8" t="n">
-        <v>643.3537986017849</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L8" t="n">
-        <v>959.6534908014922</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M8" t="n">
-        <v>1146.3529036269</v>
+        <v>1339.57526036549</v>
       </c>
       <c r="N8" t="n">
-        <v>1340.687116518882</v>
+        <v>1966.882928425336</v>
       </c>
       <c r="O8" t="n">
-        <v>1887.84832128596</v>
+        <v>2416.620883129035</v>
       </c>
       <c r="P8" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.355208378561</v>
       </c>
       <c r="Q8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2361.098974906922</v>
       </c>
       <c r="V8" t="n">
-        <v>2430.253027093969</v>
+        <v>2361.098974906922</v>
       </c>
       <c r="W8" t="n">
-        <v>2430.253027093969</v>
+        <v>2008.330319636808</v>
       </c>
       <c r="X8" t="n">
-        <v>2430.253027093969</v>
+        <v>1634.864561375728</v>
       </c>
       <c r="Y8" t="n">
-        <v>2430.253027093969</v>
+        <v>1244.725229399916</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>893.4159553857312</v>
+        <v>893.4159553857326</v>
       </c>
       <c r="C9" t="n">
-        <v>718.9629261046042</v>
+        <v>718.9629261046056</v>
       </c>
       <c r="D9" t="n">
-        <v>570.0285164433529</v>
+        <v>570.0285164433543</v>
       </c>
       <c r="E9" t="n">
-        <v>410.7910614378974</v>
+        <v>410.7910614378988</v>
       </c>
       <c r="F9" t="n">
-        <v>264.2565034647824</v>
+        <v>264.2565034647838</v>
       </c>
       <c r="G9" t="n">
-        <v>126.8151058240044</v>
+        <v>152.1627644231986</v>
       </c>
       <c r="H9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K9" t="n">
-        <v>499.3344427307086</v>
+        <v>229.0013446667976</v>
       </c>
       <c r="L9" t="n">
-        <v>636.5640407464026</v>
+        <v>733.3628845329162</v>
       </c>
       <c r="M9" t="n">
-        <v>816.0613771010075</v>
+        <v>1367.541868311955</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.240360880046</v>
+        <v>1566.19860996462</v>
       </c>
       <c r="O9" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717343</v>
       </c>
       <c r="P9" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2541.227428802342</v>
+        <v>2541.227428802343</v>
       </c>
       <c r="S9" t="n">
-        <v>2391.760639664977</v>
+        <v>2391.760639664978</v>
       </c>
       <c r="T9" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825066</v>
       </c>
       <c r="U9" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336232</v>
       </c>
       <c r="V9" t="n">
-        <v>1731.480448104488</v>
+        <v>1731.480448104489</v>
       </c>
       <c r="W9" t="n">
-        <v>1477.243091376286</v>
+        <v>1477.243091376287</v>
       </c>
       <c r="X9" t="n">
-        <v>1269.391591170753</v>
+        <v>1269.391591170755</v>
       </c>
       <c r="Y9" t="n">
-        <v>1061.631292405799</v>
+        <v>1061.631292405801</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.740424053578</v>
+        <v>869.5330031971081</v>
       </c>
       <c r="C10" t="n">
-        <v>479.8042411256711</v>
+        <v>700.5968202692012</v>
       </c>
       <c r="D10" t="n">
-        <v>479.8042411256711</v>
+        <v>550.4801808568654</v>
       </c>
       <c r="E10" t="n">
-        <v>479.8042411256711</v>
+        <v>498.6199492985284</v>
       </c>
       <c r="F10" t="n">
-        <v>479.8042411256711</v>
+        <v>498.6199492985284</v>
       </c>
       <c r="G10" t="n">
         <v>330.0131042939117</v>
       </c>
       <c r="H10" t="n">
-        <v>175.7584611936768</v>
+        <v>175.7584611936769</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K10" t="n">
         <v>152.2947161636129</v>
@@ -5005,7 +5005,7 @@
         <v>1051.181468027348</v>
       </c>
       <c r="Y10" t="n">
-        <v>830.3888888838177</v>
+        <v>1051.181468027348</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.739488336033</v>
+        <v>141.2769458819329</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.776971395621</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.511272788871</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.723020190627</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F11" t="n">
-        <v>651.7371154010191</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5057,34 +5057,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X11" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.339328400155</v>
+        <v>527.8767859460547</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K12" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M12" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
         <v>2562.339328400155</v>
@@ -5194,28 +5194,28 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2188.873570139075</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="C14" t="n">
-        <v>1819.911053198663</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D14" t="n">
-        <v>1461.645354591913</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E14" t="n">
-        <v>1075.857101993669</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F14" t="n">
-        <v>664.8711972040612</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1664469283501</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X14" t="n">
-        <v>2188.873570139075</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="Y14" t="n">
-        <v>2188.873570139075</v>
+        <v>1194.179752390877</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L15" t="n">
-        <v>815.1145481251083</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M15" t="n">
-        <v>1178.376567084328</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N15" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O15" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q15" t="n">
         <v>2562.339328400155</v>
@@ -5388,7 +5388,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
@@ -5397,7 +5397,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5428,13 +5428,13 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020476</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1785.600156360222</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C17" t="n">
-        <v>1416.63763941981</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D17" t="n">
-        <v>1058.37194081306</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E17" t="n">
-        <v>672.5836882148155</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F17" t="n">
-        <v>261.597783425208</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G17" t="n">
         <v>51.24678656800311</v>
@@ -5513,13 +5513,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5552,13 +5552,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.339328400155</v>
+        <v>2314.468185014423</v>
       </c>
       <c r="X17" t="n">
-        <v>2562.339328400155</v>
+        <v>1941.002426753343</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.199996424344</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F18" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L18" t="n">
-        <v>909.2465818694945</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M18" t="n">
-        <v>1272.508600828715</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N18" t="n">
-        <v>1659.79372942566</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O18" t="n">
-        <v>1991.864164601822</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434119</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.339328400155</v>
@@ -5631,10 +5631,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>918.7469765594642</v>
+        <v>359.3304604754449</v>
       </c>
       <c r="C19" t="n">
-        <v>918.7469765594642</v>
+        <v>190.3942775475379</v>
       </c>
       <c r="D19" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E19" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F19" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
         <v>51.24678656800311</v>
@@ -5695,28 +5695,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T19" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V19" t="n">
-        <v>1439.817372234359</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.817372234359</v>
+        <v>989.7610553472321</v>
       </c>
       <c r="X19" t="n">
-        <v>1321.188020533234</v>
+        <v>761.7715044492147</v>
       </c>
       <c r="Y19" t="n">
-        <v>1100.395441389704</v>
+        <v>540.9789253056846</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1287.435190625613</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C20" t="n">
-        <v>918.472673685201</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D20" t="n">
-        <v>560.2069750784506</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E20" t="n">
-        <v>174.4187224802063</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F20" t="n">
-        <v>174.4187224802063</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H20" t="n">
         <v>51.24678656800311</v>
@@ -5750,10 +5750,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L20" t="n">
         <v>795.7553530872912</v>
@@ -5777,25 +5777,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926626</v>
+        <v>2543.379705755076</v>
       </c>
       <c r="U20" t="n">
-        <v>2437.640120926626</v>
+        <v>2289.798645019256</v>
       </c>
       <c r="V20" t="n">
-        <v>2437.640120926626</v>
+        <v>1958.735757675685</v>
       </c>
       <c r="W20" t="n">
-        <v>2437.640120926626</v>
+        <v>1958.735757675685</v>
       </c>
       <c r="X20" t="n">
-        <v>2064.174362665546</v>
+        <v>1958.735757675685</v>
       </c>
       <c r="Y20" t="n">
-        <v>1674.035030689734</v>
+        <v>1568.596425699873</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D21" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F21" t="n">
         <v>302.1446891756898</v>
@@ -5823,7 +5823,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
         <v>51.24678656800311</v>
@@ -5832,25 +5832,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L21" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M21" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O21" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5862,7 +5862,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>977.1399948936612</v>
+        <v>1296.192817233904</v>
       </c>
       <c r="C22" t="n">
-        <v>977.1399948936612</v>
+        <v>1127.256634305997</v>
       </c>
       <c r="D22" t="n">
         <v>977.1399948936612</v>
@@ -5932,28 +5932,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R22" t="n">
-        <v>2459.755921915737</v>
+        <v>2505.158919638814</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.127174075599</v>
+        <v>2505.158919638814</v>
       </c>
       <c r="T22" t="n">
-        <v>2040.148693270334</v>
+        <v>2505.158919638814</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.030355774172</v>
+        <v>2216.040582142651</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.345867568285</v>
+        <v>2216.040582142651</v>
       </c>
       <c r="W22" t="n">
-        <v>1206.928697531324</v>
+        <v>1926.623412105691</v>
       </c>
       <c r="X22" t="n">
-        <v>978.939146633307</v>
+        <v>1698.633861207673</v>
       </c>
       <c r="Y22" t="n">
-        <v>977.1399948936612</v>
+        <v>1477.841282064143</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1293.678597188911</v>
       </c>
       <c r="F23" t="n">
-        <v>882.6926923993033</v>
+        <v>882.6926923993032</v>
       </c>
       <c r="G23" t="n">
         <v>466.9879421235921</v>
@@ -5987,25 +5987,25 @@
         <v>96.5551489570508</v>
       </c>
       <c r="J23" t="n">
-        <v>400.2421936456825</v>
+        <v>232.8365446253295</v>
       </c>
       <c r="K23" t="n">
-        <v>976.135155136462</v>
+        <v>808.729506116109</v>
       </c>
       <c r="L23" t="n">
-        <v>1742.857925347091</v>
+        <v>1575.452276326738</v>
       </c>
       <c r="M23" t="n">
-        <v>2167.572886183362</v>
+        <v>2445.185635320913</v>
       </c>
       <c r="N23" t="n">
-        <v>3016.32479339001</v>
+        <v>3314.360191796032</v>
       </c>
       <c r="O23" t="n">
-        <v>3791.874042350151</v>
+        <v>4089.909440756173</v>
       </c>
       <c r="P23" t="n">
-        <v>4416.113000464076</v>
+        <v>4626.304841217382</v>
       </c>
       <c r="Q23" t="n">
         <v>4807.668701176235</v>
@@ -6069,22 +6069,22 @@
         <v>283.7356926260638</v>
       </c>
       <c r="K24" t="n">
-        <v>659.8513872270703</v>
+        <v>730.2778985495667</v>
       </c>
       <c r="L24" t="n">
-        <v>954.554944258542</v>
+        <v>1024.981455581039</v>
       </c>
       <c r="M24" t="n">
-        <v>1317.816963217762</v>
+        <v>1388.243474540259</v>
       </c>
       <c r="N24" t="n">
-        <v>1705.102091814707</v>
+        <v>1775.528603137204</v>
       </c>
       <c r="O24" t="n">
-        <v>2037.172526990869</v>
+        <v>2107.599038313366</v>
       </c>
       <c r="P24" t="n">
-        <v>2284.355260823166</v>
+        <v>2492.331775681657</v>
       </c>
       <c r="Q24" t="n">
         <v>2607.647690789203</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.3974770693184</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="C25" t="n">
-        <v>709.4612941414115</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="D25" t="n">
-        <v>559.3446547290757</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="E25" t="n">
-        <v>411.4315611466826</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="F25" t="n">
-        <v>264.5416136487722</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="G25" t="n">
-        <v>96.5551489570508</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="H25" t="n">
-        <v>96.5551489570508</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="I25" t="n">
-        <v>96.5551489570508</v>
+        <v>3242.558114346047</v>
       </c>
       <c r="J25" t="n">
-        <v>122.0243219421697</v>
+        <v>3268.027287331166</v>
       </c>
       <c r="K25" t="n">
-        <v>293.7148336910953</v>
+        <v>3439.717799080091</v>
       </c>
       <c r="L25" t="n">
-        <v>568.9460123583713</v>
+        <v>3714.948977747367</v>
       </c>
       <c r="M25" t="n">
-        <v>869.5278230987066</v>
+        <v>4015.530788487702</v>
       </c>
       <c r="N25" t="n">
-        <v>1168.397086634871</v>
+        <v>4314.400052023866</v>
       </c>
       <c r="O25" t="n">
-        <v>1428.434929388083</v>
+        <v>4574.437894777078</v>
       </c>
       <c r="P25" t="n">
-        <v>1627.421544560072</v>
+        <v>4773.424509949067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1681.754482463545</v>
+        <v>4827.75744785254</v>
       </c>
       <c r="R25" t="n">
-        <v>1681.754482463545</v>
+        <v>4827.75744785254</v>
       </c>
       <c r="S25" t="n">
-        <v>1681.754482463545</v>
+        <v>4747.538720931868</v>
       </c>
       <c r="T25" t="n">
-        <v>1681.754482463545</v>
+        <v>4524.560240126603</v>
       </c>
       <c r="U25" t="n">
-        <v>1681.754482463545</v>
+        <v>4235.441902630441</v>
       </c>
       <c r="V25" t="n">
-        <v>1681.754482463545</v>
+        <v>3980.757414424555</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.828071941105</v>
+        <v>3691.340244387594</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.838521043088</v>
+        <v>3463.350693489577</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.045941899558</v>
+        <v>3242.558114346047</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.26325471341</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C26" t="n">
-        <v>795.3007377729979</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D26" t="n">
-        <v>437.0350391662474</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="E26" t="n">
-        <v>51.24678656800311</v>
+        <v>657.3836285604857</v>
       </c>
       <c r="F26" t="n">
-        <v>51.24678656800311</v>
+        <v>246.3977237708781</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362809</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816073</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872907</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O26" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q26" t="n">
         <v>2542.25058172385</v>
@@ -6263,13 +6263,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W26" t="n">
-        <v>2314.468185014423</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.002426753343</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y26" t="n">
-        <v>1550.863094777531</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L27" t="n">
-        <v>909.2465818694941</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M27" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400155</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>977.1399948936612</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C28" t="n">
-        <v>977.1399948936612</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D28" t="n">
-        <v>977.1399948936612</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E28" t="n">
-        <v>977.1399948936612</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="F28" t="n">
-        <v>977.1399948936612</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="G28" t="n">
-        <v>977.1399948936612</v>
+        <v>229.5590681337855</v>
       </c>
       <c r="H28" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J28" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L28" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M28" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N28" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O28" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P28" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>2142.732099754752</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U28" t="n">
-        <v>1853.61376225859</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V28" t="n">
-        <v>1598.929274052703</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W28" t="n">
-        <v>1309.512104015742</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.522553117725</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y28" t="n">
-        <v>977.1399948936612</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="29">
@@ -6446,43 +6446,43 @@
         <v>1043.17188115873</v>
       </c>
       <c r="E29" t="n">
-        <v>657.3836285604862</v>
+        <v>657.3836285604857</v>
       </c>
       <c r="F29" t="n">
-        <v>246.3977237708786</v>
+        <v>246.3977237708781</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362809</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816073</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872907</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O29" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
         <v>2562.339328400155</v>
@@ -6503,10 +6503,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X29" t="n">
-        <v>2188.873570139076</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y29" t="n">
-        <v>1798.734238163264</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370161</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020476</v>
@@ -6643,28 +6643,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1337.233965749941</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T31" t="n">
-        <v>1114.255484944676</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U31" t="n">
-        <v>825.137147448514</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V31" t="n">
-        <v>570.4526592426272</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W31" t="n">
-        <v>440.0258304032546</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X31" t="n">
-        <v>440.0258304032546</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1291.481876182945</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="C32" t="n">
-        <v>922.5193592425337</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="D32" t="n">
-        <v>564.2536606357833</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="E32" t="n">
-        <v>178.465408037539</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F32" t="n">
-        <v>178.465408037539</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G32" t="n">
-        <v>178.465408037539</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362818</v>
@@ -6725,25 +6725,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182945</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X32" t="n">
-        <v>1291.481876182945</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y32" t="n">
-        <v>1291.481876182945</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057869</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L33" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1006.01552520271</v>
+        <v>427.4800176695874</v>
       </c>
       <c r="C34" t="n">
-        <v>837.0793422748035</v>
+        <v>427.4800176695874</v>
       </c>
       <c r="D34" t="n">
-        <v>686.9627028624677</v>
+        <v>277.3633782572516</v>
       </c>
       <c r="E34" t="n">
-        <v>539.0496092800746</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F34" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G34" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020476</v>
@@ -6889,19 +6889,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U34" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W34" t="n">
-        <v>1636.446120074497</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X34" t="n">
-        <v>1408.45656917648</v>
+        <v>829.9210616433572</v>
       </c>
       <c r="Y34" t="n">
-        <v>1187.66399003295</v>
+        <v>609.1284824998271</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>1043.17188115873</v>
       </c>
       <c r="E35" t="n">
-        <v>657.3836285604862</v>
+        <v>657.3836285604857</v>
       </c>
       <c r="F35" t="n">
-        <v>246.3977237708786</v>
+        <v>246.3977237708781</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J35" t="n">
         <v>187.5281822362818</v>
@@ -6956,7 +6956,7 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R35" t="n">
         <v>2562.339328400155</v>
@@ -6977,10 +6977,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X35" t="n">
-        <v>2188.873570139076</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y35" t="n">
-        <v>1798.734238163264</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="36">
@@ -7008,16 +7008,16 @@
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L36" t="n">
         <v>909.2465818694941</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.683159487371</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C37" t="n">
-        <v>918.7469765594642</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="D37" t="n">
-        <v>768.6303371471284</v>
+        <v>432.2782146565806</v>
       </c>
       <c r="E37" t="n">
-        <v>620.7172435647353</v>
+        <v>284.3651210741875</v>
       </c>
       <c r="F37" t="n">
-        <v>473.8272960668249</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="G37" t="n">
-        <v>305.8408313751036</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1019332386097</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J37" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020476</v>
@@ -7126,19 +7126,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>1347.327782578335</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W37" t="n">
-        <v>1347.327782578335</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X37" t="n">
-        <v>1347.327782578335</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1269.331624317611</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1412.134398099142</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="C38" t="n">
-        <v>1043.17188115873</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D38" t="n">
-        <v>1043.17188115873</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E38" t="n">
-        <v>657.3836285604862</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F38" t="n">
-        <v>246.3977237708786</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362818</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923562</v>
@@ -7190,10 +7190,10 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R38" t="n">
         <v>2562.339328400155</v>
@@ -7202,22 +7202,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.339328400155</v>
+        <v>1556.684450381228</v>
       </c>
       <c r="X38" t="n">
-        <v>2188.873570139076</v>
+        <v>1556.684450381228</v>
       </c>
       <c r="Y38" t="n">
-        <v>1798.734238163264</v>
+        <v>1166.545118405417</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F39" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800295</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K39" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L39" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M39" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N39" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O39" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P39" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7284,16 +7284,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1037.376328260589</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C40" t="n">
-        <v>868.4401453326821</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D40" t="n">
-        <v>718.3235059203463</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E40" t="n">
-        <v>570.4104123379532</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F40" t="n">
-        <v>423.5204648400428</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G40" t="n">
-        <v>255.5340001483214</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H40" t="n">
-        <v>106.7951020118276</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J40" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020476</v>
@@ -7357,25 +7357,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X40" t="n">
-        <v>1439.817372234359</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y40" t="n">
-        <v>1219.024793090829</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1164.26325471341</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C41" t="n">
-        <v>795.3007377729979</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D41" t="n">
-        <v>437.0350391662474</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E41" t="n">
-        <v>51.24678656800311</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
         <v>187.5281822362818</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816073</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872907</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O41" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q41" t="n">
         <v>2542.25058172385</v>
@@ -7436,25 +7436,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V41" t="n">
-        <v>2277.097508308726</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W41" t="n">
-        <v>1924.328853038611</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.863094777531</v>
+        <v>2351.988331542951</v>
       </c>
       <c r="Y41" t="n">
-        <v>1550.863094777531</v>
+        <v>1961.848999567139</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L42" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.170551105041</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.455679701986</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.526114878148</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>706.8033708781536</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C43" t="n">
-        <v>537.8671879502467</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D43" t="n">
-        <v>514.036292340028</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E43" t="n">
-        <v>366.1231987576349</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F43" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020476</v>
@@ -7591,28 +7591,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U43" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V43" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W43" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X43" t="n">
-        <v>1109.244414851923</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y43" t="n">
-        <v>888.4518357083933</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1575.249159503017</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="C44" t="n">
-        <v>1206.286642562605</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="D44" t="n">
-        <v>848.0209439558549</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2326913576107</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F44" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
@@ -7664,7 +7664,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
         <v>2542.25058172385</v>
@@ -7679,19 +7679,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400155</v>
+        <v>2327.379233555715</v>
       </c>
       <c r="V44" t="n">
-        <v>2562.339328400155</v>
+        <v>2327.379233555715</v>
       </c>
       <c r="W44" t="n">
-        <v>2562.339328400155</v>
+        <v>1974.6105782856</v>
       </c>
       <c r="X44" t="n">
-        <v>2351.988331542951</v>
+        <v>1601.144820024521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1961.848999567139</v>
+        <v>1211.005488048709</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L45" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
         <v>2562.339328400155</v>
@@ -7758,16 +7758,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>570.4526592426272</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C46" t="n">
-        <v>570.4526592426272</v>
+        <v>112.0993062777597</v>
       </c>
       <c r="D46" t="n">
-        <v>570.4526592426272</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E46" t="n">
-        <v>570.4526592426272</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F46" t="n">
-        <v>423.5627117447168</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G46" t="n">
-        <v>255.5762470529954</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
-        <v>106.8373489165016</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020476</v>
@@ -7843,13 +7843,13 @@
         <v>570.4526592426272</v>
       </c>
       <c r="W46" t="n">
-        <v>570.4526592426272</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X46" t="n">
-        <v>570.4526592426272</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y46" t="n">
-        <v>570.4526592426272</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.9694367048415</v>
+        <v>55.96943670484141</v>
       </c>
       <c r="K3" t="n">
-        <v>177.9958106585129</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>123.6078613817842</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>237.271294287097</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.48626274621606</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>178.7586225842971</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>282.3928579664031</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>111.2593317529671</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>459.2743913378121</v>
       </c>
       <c r="N9" t="n">
-        <v>439.9214566933067</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>300.9145760707515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>240.446544241743</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L15" t="n">
-        <v>224.335519760177</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>20.93778120154988</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>319.4183821282439</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>60.50016306149575</v>
       </c>
       <c r="R18" t="n">
         <v>20.93778120154988</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>416.7179857569628</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>233.0678418556078</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878348</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154988</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>15.64270034434907</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>20.93778120154988</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L36" t="n">
-        <v>54.95314511566482</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>211.0329012241556</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.9556134883061418</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>193.3273467878348</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,7 +22562,7 @@
         <v>413.9008012965642</v>
       </c>
       <c r="H2" t="n">
-        <v>279.1324874872531</v>
+        <v>325.1172228173282</v>
       </c>
       <c r="I2" t="n">
         <v>156.4277435039525</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.80474195134742</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>21.73699444853037</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22671,13 +22671,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.58571135891965</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>138.8952726697617</v>
       </c>
       <c r="T3" t="n">
-        <v>85.30956131084395</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4584539343738</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>30.32675006827004</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.89875519058054</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.5035664618994</v>
+        <v>33.50356646189934</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.0175444330455</v>
       </c>
       <c r="S4" t="n">
         <v>213.0572776585077</v>
@@ -22787,22 +22787,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>210.1115233153932</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>325.1172228173282</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>156.4277435039525</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.8047419513474</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>177.0734480055617</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.9588737673374</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2334980103508</v>
+        <v>38.27872016927608</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.58571135891963</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>85.3095613108437</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>138.8952726697617</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22939,10 +22939,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3621190341859</v>
       </c>
       <c r="H7" t="n">
-        <v>49.06422451326659</v>
+        <v>156.6360325334498</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>117.8498037996117</v>
       </c>
       <c r="J7" t="n">
-        <v>48.89875519058052</v>
+        <v>48.89875519058049</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.50356646189938</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>149.0175444330455</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>213.0572776585077</v>
       </c>
       <c r="T7" t="n">
-        <v>225.2586407700247</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2847278842578</v>
@@ -23018,22 +23018,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23075,19 +23075,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>51.92683626399887</v>
       </c>
       <c r="V8" t="n">
-        <v>196.986820177011</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23112,10 +23112,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.09418201320088</v>
       </c>
       <c r="H9" t="n">
-        <v>25.09418201320219</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>45.44580843958667</v>
@@ -23182,16 +23182,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>95.09233340381545</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>18.62755109112871</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1430340502171</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>183.7907424631441</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>80.85095794181444</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0780888056619</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>65.70991267247047</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>273.40199812432</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>203.3002158843212</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
@@ -23792,10 +23792,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>103.8485367655379</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>10.85945694847288</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
@@ -23947,13 +23947,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>108.2665972049237</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>289.6074862198728</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247047</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>187.8881585616051</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.94896774584522</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.8034931298454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24412,19 +24412,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>115.2459207102717</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>115.3258519193755</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>218.3482749421077</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>103.8485367655379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>75.51894560890482</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.2459207102716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>218.3482749421073</v>
+        <v>218.3482749421077</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4004377856122</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,25 +24917,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>29.62957668503901</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>175.0721173075648</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24965,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,10 +24977,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>88.88513691901736</v>
       </c>
       <c r="F34" t="n">
-        <v>80.85095794181409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>218.3482749421073</v>
+        <v>218.3482749421077</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.43049206570925</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.3684566739775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25391,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>218.3482749421073</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25442,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>139.0983330575065</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>49.80376291451433</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.6581849802338</v>
@@ -25685,16 +25685,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>45.36285657961935</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>284.9358291886309</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.0228863640958</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>80.85095794181409</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
         <v>220.7486959972119</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25919,16 +25919,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>18.43475623246604</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>161.4836137898363</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>88.37147850555337</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>49.76193847888705</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769734.1917372886</v>
+        <v>769734.1917372888</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776553.7163741157</v>
+        <v>776553.7163741158</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774562.1699567266</v>
+        <v>774562.1699567268</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774562.169956727</v>
+        <v>774562.1699567268</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774562.1699567267</v>
+        <v>774562.1699567266</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567266</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774562.1699567266</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279674.3966369406</v>
+        <v>279674.3966369408</v>
       </c>
       <c r="C2" t="n">
-        <v>279674.3966369407</v>
+        <v>279674.3966369411</v>
       </c>
       <c r="D2" t="n">
-        <v>292326.4653616188</v>
+        <v>292326.4653616189</v>
       </c>
       <c r="E2" t="n">
-        <v>305971.6304943085</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="F2" t="n">
-        <v>305971.6304943085</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="G2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="H2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="I2" t="n">
         <v>393448.3951421183</v>
@@ -26338,7 +26338,7 @@
         <v>305971.6304943086</v>
       </c>
       <c r="K2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="L2" t="n">
         <v>305971.6304943086</v>
@@ -26350,10 +26350,10 @@
         <v>305971.6304943085</v>
       </c>
       <c r="O2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="P2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>550717.0470775614</v>
+        <v>550717.047077562</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>209602.5870779998</v>
+        <v>209602.5870779996</v>
       </c>
       <c r="E3" t="n">
-        <v>273630.0570820048</v>
+        <v>273630.057082005</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>150605.5629357244</v>
       </c>
       <c r="J3" t="n">
-        <v>19421.91319848256</v>
+        <v>19421.91319848265</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68948.76888829634</v>
+        <v>71035.31137914708</v>
       </c>
       <c r="C4" t="n">
-        <v>68948.76888829636</v>
+        <v>71035.31137914708</v>
       </c>
       <c r="D4" t="n">
-        <v>44885.34623107874</v>
+        <v>46238.08588288454</v>
       </c>
       <c r="E4" t="n">
-        <v>9869.999386411559</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="F4" t="n">
-        <v>9869.999386411553</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="G4" t="n">
-        <v>9869.999386411557</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="H4" t="n">
-        <v>9869.999386411555</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="I4" t="n">
-        <v>44783.01500802281</v>
+        <v>46123.82659833208</v>
       </c>
       <c r="J4" t="n">
-        <v>9869.999386411555</v>
+        <v>10154.90898475461</v>
       </c>
       <c r="K4" t="n">
-        <v>9869.999386411553</v>
+        <v>10154.90898475461</v>
       </c>
       <c r="L4" t="n">
-        <v>9869.999386411553</v>
+        <v>10154.90898475461</v>
       </c>
       <c r="M4" t="n">
-        <v>9869.999386411555</v>
+        <v>10154.90898475461</v>
       </c>
       <c r="N4" t="n">
-        <v>9869.99938641156</v>
+        <v>10154.90898475462</v>
       </c>
       <c r="O4" t="n">
-        <v>9869.999386411557</v>
+        <v>10154.90898475461</v>
       </c>
       <c r="P4" t="n">
-        <v>9869.999386411555</v>
+        <v>10154.90898475462</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80177.50742093752</v>
+        <v>80177.50742093756</v>
       </c>
       <c r="C5" t="n">
-        <v>80177.50742093753</v>
+        <v>80177.50742093756</v>
       </c>
       <c r="D5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905219</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="G5" t="n">
         <v>59310.17243984472</v>
@@ -26491,25 +26491,25 @@
         <v>93744.52785552097</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420168.9267498546</v>
+        <v>-422255.4692407058</v>
       </c>
       <c r="C6" t="n">
-        <v>130548.1203277068</v>
+        <v>128461.5778368564</v>
       </c>
       <c r="D6" t="n">
-        <v>-47674.40472651193</v>
+        <v>-49027.1443783174</v>
       </c>
       <c r="E6" t="n">
-        <v>-36838.59841395258</v>
+        <v>-37123.50801229564</v>
       </c>
       <c r="F6" t="n">
-        <v>236791.4586680521</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="G6" t="n">
-        <v>236791.4586680524</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="H6" t="n">
-        <v>236791.4586680524</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="I6" t="n">
-        <v>104315.2893428501</v>
+        <v>102974.4777525409</v>
       </c>
       <c r="J6" t="n">
-        <v>217369.5454695698</v>
+        <v>217084.6358712267</v>
       </c>
       <c r="K6" t="n">
-        <v>236791.4586680524</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="L6" t="n">
-        <v>236791.4586680523</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="M6" t="n">
-        <v>236791.4586680524</v>
+        <v>236506.5490697094</v>
       </c>
       <c r="N6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697091</v>
       </c>
       <c r="O6" t="n">
-        <v>236791.4586680524</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="P6" t="n">
-        <v>236791.4586680524</v>
+        <v>236506.5490697093</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.7316343695032</v>
+        <v>348.7316343695036</v>
       </c>
       <c r="C3" t="n">
-        <v>348.7316343695034</v>
+        <v>348.7316343695036</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="F3" t="n">
         <v>934.0648921175393</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="G4" t="n">
         <v>640.5848321000389</v>
@@ -26811,25 +26811,25 @@
         <v>1206.939361963135</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.7316343695032</v>
+        <v>348.7316343695036</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>244.7444659685617</v>
+        <v>244.7444659685614</v>
       </c>
       <c r="E3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>566.3545298630962</v>
       </c>
       <c r="J4" t="n">
-        <v>74.23030223694241</v>
+        <v>74.23030223694275</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.401936218570866</v>
+        <v>1.401936218570868</v>
       </c>
       <c r="H2" t="n">
-        <v>14.35757929843889</v>
+        <v>14.3575792984389</v>
       </c>
       <c r="I2" t="n">
-        <v>54.04814606645337</v>
+        <v>54.04814606645343</v>
       </c>
       <c r="J2" t="n">
-        <v>118.9875841309292</v>
+        <v>118.9875841309293</v>
       </c>
       <c r="K2" t="n">
-        <v>178.331544263034</v>
+        <v>178.3315442630342</v>
       </c>
       <c r="L2" t="n">
-        <v>221.2360498121222</v>
+        <v>221.2360498121224</v>
       </c>
       <c r="M2" t="n">
-        <v>246.1677330391318</v>
+        <v>246.1677330391321</v>
       </c>
       <c r="N2" t="n">
-        <v>250.1509843201463</v>
+        <v>250.1509843201466</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2104810467322</v>
+        <v>236.2104810467325</v>
       </c>
       <c r="P2" t="n">
-        <v>201.6001806507639</v>
+        <v>201.6001806507642</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.3933398231947</v>
+        <v>151.3933398231949</v>
       </c>
       <c r="R2" t="n">
-        <v>88.06437598980226</v>
+        <v>88.06437598980236</v>
       </c>
       <c r="S2" t="n">
-        <v>31.94662158068365</v>
+        <v>31.94662158068368</v>
       </c>
       <c r="T2" t="n">
-        <v>6.13697579679397</v>
+        <v>6.136975796793977</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1121548974856693</v>
+        <v>0.1121548974856694</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7501020060023278</v>
+        <v>0.7501020060023286</v>
       </c>
       <c r="H3" t="n">
-        <v>7.244406215864587</v>
+        <v>7.244406215864596</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82588046981699</v>
+        <v>25.82588046981702</v>
       </c>
       <c r="J3" t="n">
-        <v>70.86818996182519</v>
+        <v>70.86818996182528</v>
       </c>
       <c r="K3" t="n">
-        <v>121.1250243639812</v>
+        <v>121.1250243639813</v>
       </c>
       <c r="L3" t="n">
-        <v>162.8675430137949</v>
+        <v>162.8675430137951</v>
       </c>
       <c r="M3" t="n">
-        <v>190.0587407313792</v>
+        <v>190.0587407313795</v>
       </c>
       <c r="N3" t="n">
-        <v>195.0890300611054</v>
+        <v>195.0890300611056</v>
       </c>
       <c r="O3" t="n">
-        <v>178.4683487702117</v>
+        <v>178.4683487702119</v>
       </c>
       <c r="P3" t="n">
-        <v>143.236583935655</v>
+        <v>143.2365839356552</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.74986308198136</v>
+        <v>95.74986308198146</v>
       </c>
       <c r="R3" t="n">
-        <v>46.57212279372349</v>
+        <v>46.57212279372354</v>
       </c>
       <c r="S3" t="n">
-        <v>13.93281576938533</v>
+        <v>13.93281576938535</v>
       </c>
       <c r="T3" t="n">
-        <v>3.023437471562013</v>
+        <v>3.023437471562016</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04934881618436369</v>
+        <v>0.04934881618436374</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6288603242728746</v>
+        <v>0.6288603242728753</v>
       </c>
       <c r="H4" t="n">
-        <v>5.591139973989744</v>
+        <v>5.59113997398975</v>
       </c>
       <c r="I4" t="n">
-        <v>18.911545024497</v>
+        <v>18.91154502449702</v>
       </c>
       <c r="J4" t="n">
-        <v>44.46042492609223</v>
+        <v>44.46042492609229</v>
       </c>
       <c r="K4" t="n">
-        <v>73.06213585643033</v>
+        <v>73.06213585643042</v>
       </c>
       <c r="L4" t="n">
-        <v>93.49437948325993</v>
+        <v>93.49437948326005</v>
       </c>
       <c r="M4" t="n">
-        <v>98.57671428579251</v>
+        <v>98.57671428579262</v>
       </c>
       <c r="N4" t="n">
-        <v>96.23278034986642</v>
+        <v>96.23278034986653</v>
       </c>
       <c r="O4" t="n">
-        <v>88.88654837995144</v>
+        <v>88.88654837995153</v>
       </c>
       <c r="P4" t="n">
-        <v>76.05779776478474</v>
+        <v>76.05779776478482</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.65847678979499</v>
+        <v>52.65847678979505</v>
       </c>
       <c r="R4" t="n">
-        <v>28.27584694412397</v>
+        <v>28.27584694412401</v>
       </c>
       <c r="S4" t="n">
-        <v>10.95932037846455</v>
+        <v>10.95932037846456</v>
       </c>
       <c r="T4" t="n">
-        <v>2.686948658256827</v>
+        <v>2.68694865825683</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03430147223306593</v>
+        <v>0.03430147223306597</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.401936218570867</v>
+        <v>1.401936218570868</v>
       </c>
       <c r="H5" t="n">
-        <v>14.35757929843889</v>
+        <v>14.3575792984389</v>
       </c>
       <c r="I5" t="n">
-        <v>54.04814606645339</v>
+        <v>54.04814606645343</v>
       </c>
       <c r="J5" t="n">
-        <v>118.9875841309292</v>
+        <v>118.9875841309293</v>
       </c>
       <c r="K5" t="n">
-        <v>178.331544263034</v>
+        <v>178.3315442630342</v>
       </c>
       <c r="L5" t="n">
-        <v>221.2360498121222</v>
+        <v>221.2360498121224</v>
       </c>
       <c r="M5" t="n">
-        <v>246.1677330391319</v>
+        <v>246.1677330391321</v>
       </c>
       <c r="N5" t="n">
-        <v>250.1509843201464</v>
+        <v>250.1509843201466</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2104810467323</v>
+        <v>236.2104810467325</v>
       </c>
       <c r="P5" t="n">
-        <v>201.600180650764</v>
+        <v>201.6001806507642</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.3933398231948</v>
+        <v>151.3933398231949</v>
       </c>
       <c r="R5" t="n">
-        <v>88.06437598980229</v>
+        <v>88.06437598980236</v>
       </c>
       <c r="S5" t="n">
-        <v>31.94662158068366</v>
+        <v>31.94662158068368</v>
       </c>
       <c r="T5" t="n">
-        <v>6.136975796793972</v>
+        <v>6.136975796793977</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1121548974856693</v>
+        <v>0.1121548974856694</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.750102006002328</v>
+        <v>0.7501020060023286</v>
       </c>
       <c r="H6" t="n">
-        <v>7.24440621586459</v>
+        <v>7.244406215864596</v>
       </c>
       <c r="I6" t="n">
-        <v>25.825880469817</v>
+        <v>25.82588046981702</v>
       </c>
       <c r="J6" t="n">
-        <v>70.86818996182522</v>
+        <v>70.86818996182528</v>
       </c>
       <c r="K6" t="n">
-        <v>121.1250243639812</v>
+        <v>121.1250243639813</v>
       </c>
       <c r="L6" t="n">
-        <v>162.867543013795</v>
+        <v>162.8675430137951</v>
       </c>
       <c r="M6" t="n">
-        <v>190.0587407313793</v>
+        <v>190.0587407313795</v>
       </c>
       <c r="N6" t="n">
-        <v>195.0890300611055</v>
+        <v>195.0890300611056</v>
       </c>
       <c r="O6" t="n">
-        <v>178.4683487702118</v>
+        <v>178.4683487702119</v>
       </c>
       <c r="P6" t="n">
-        <v>143.2365839356551</v>
+        <v>143.2365839356552</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.74986308198139</v>
+        <v>95.74986308198146</v>
       </c>
       <c r="R6" t="n">
-        <v>46.5721227937235</v>
+        <v>46.57212279372354</v>
       </c>
       <c r="S6" t="n">
-        <v>13.93281576938534</v>
+        <v>13.93281576938535</v>
       </c>
       <c r="T6" t="n">
-        <v>3.023437471562014</v>
+        <v>3.023437471562016</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0493488161843637</v>
+        <v>0.04934881618436374</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6288603242728749</v>
+        <v>0.6288603242728753</v>
       </c>
       <c r="H7" t="n">
-        <v>5.591139973989746</v>
+        <v>5.59113997398975</v>
       </c>
       <c r="I7" t="n">
-        <v>18.91154502449701</v>
+        <v>18.91154502449702</v>
       </c>
       <c r="J7" t="n">
-        <v>44.46042492609225</v>
+        <v>44.46042492609229</v>
       </c>
       <c r="K7" t="n">
-        <v>73.06213585643034</v>
+        <v>73.06213585643042</v>
       </c>
       <c r="L7" t="n">
-        <v>93.49437948325998</v>
+        <v>93.49437948326005</v>
       </c>
       <c r="M7" t="n">
-        <v>98.57671428579253</v>
+        <v>98.57671428579262</v>
       </c>
       <c r="N7" t="n">
-        <v>96.23278034986645</v>
+        <v>96.23278034986653</v>
       </c>
       <c r="O7" t="n">
-        <v>88.88654837995146</v>
+        <v>88.88654837995153</v>
       </c>
       <c r="P7" t="n">
-        <v>76.05779776478475</v>
+        <v>76.05779776478482</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.658476789795</v>
+        <v>52.65847678979505</v>
       </c>
       <c r="R7" t="n">
-        <v>28.27584694412398</v>
+        <v>28.27584694412401</v>
       </c>
       <c r="S7" t="n">
-        <v>10.95932037846455</v>
+        <v>10.95932037846456</v>
       </c>
       <c r="T7" t="n">
-        <v>2.686948658256828</v>
+        <v>2.68694865825683</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03430147223306594</v>
+        <v>0.03430147223306597</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31832,10 +31832,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31844,34 +31844,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31929,10 +31929,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31941,16 +31941,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>405.5015080147052</v>
       </c>
       <c r="R38" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235304</v>
       </c>
       <c r="S38" t="n">
         <v>85.56785418745099</v>
@@ -34366,7 +34366,7 @@
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491895</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
         <v>477.6545005857143</v>
@@ -34387,7 +34387,7 @@
         <v>539.9786897190645</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147041</v>
       </c>
       <c r="R44" t="n">
         <v>235.8772011235312</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>107.0382947763166</v>
+        <v>107.0382947763168</v>
       </c>
       <c r="K2" t="n">
-        <v>282.3871057892181</v>
+        <v>282.3871057892184</v>
       </c>
       <c r="L2" t="n">
-        <v>403.1308493925853</v>
+        <v>403.1308493925856</v>
       </c>
       <c r="M2" t="n">
-        <v>465.3350333046916</v>
+        <v>465.3350333046918</v>
       </c>
       <c r="N2" t="n">
-        <v>458.0848451355395</v>
+        <v>458.0848451355398</v>
       </c>
       <c r="O2" t="n">
-        <v>386.9124508877908</v>
+        <v>386.9124508877911</v>
       </c>
       <c r="P2" t="n">
-        <v>292.165893066977</v>
+        <v>292.1658930669773</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.4026406086499</v>
+        <v>141.4026406086501</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>161.2793960481351</v>
+        <v>247.7488224022009</v>
       </c>
       <c r="L3" t="n">
-        <v>395.1535085373799</v>
+        <v>395.15350853738</v>
       </c>
       <c r="M3" t="n">
-        <v>513.6297705593608</v>
+        <v>513.6297705593611</v>
       </c>
       <c r="N3" t="n">
-        <v>543.0896923213256</v>
+        <v>543.0896923213259</v>
       </c>
       <c r="O3" t="n">
-        <v>429.7344236024968</v>
+        <v>429.734423602497</v>
       </c>
       <c r="P3" t="n">
-        <v>327.724945161262</v>
+        <v>327.7249451612621</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.8453767318089</v>
+        <v>79.37595037774418</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.79264403054748</v>
+        <v>50.79264403054756</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0844047435761</v>
+        <v>121.0844047435762</v>
       </c>
       <c r="M4" t="n">
-        <v>138.1605912476331</v>
+        <v>138.1605912476332</v>
       </c>
       <c r="N4" t="n">
-        <v>140.364952729095</v>
+        <v>140.3649527290951</v>
       </c>
       <c r="O4" t="n">
-        <v>113.4716762939911</v>
+        <v>113.4716762939912</v>
       </c>
       <c r="P4" t="n">
-        <v>73.33635702967823</v>
+        <v>73.33635702967831</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.0382947763167</v>
+        <v>107.0382947763168</v>
       </c>
       <c r="K5" t="n">
-        <v>282.3871057892183</v>
+        <v>282.3871057892184</v>
       </c>
       <c r="L5" t="n">
-        <v>403.1308493925854</v>
+        <v>403.1308493925856</v>
       </c>
       <c r="M5" t="n">
-        <v>465.3350333046916</v>
+        <v>465.3350333046918</v>
       </c>
       <c r="N5" t="n">
-        <v>458.0848451355396</v>
+        <v>458.0848451355398</v>
       </c>
       <c r="O5" t="n">
-        <v>386.9124508877909</v>
+        <v>386.9124508877911</v>
       </c>
       <c r="P5" t="n">
-        <v>292.1658930669771</v>
+        <v>292.1658930669773</v>
       </c>
       <c r="Q5" t="n">
-        <v>141.40264060865</v>
+        <v>141.4026406086501</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>70.12159863556737</v>
+        <v>70.12159863556742</v>
       </c>
       <c r="K6" t="n">
-        <v>247.7488224022008</v>
+        <v>247.7488224022009</v>
       </c>
       <c r="L6" t="n">
-        <v>395.1535085373799</v>
+        <v>395.15350853738</v>
       </c>
       <c r="M6" t="n">
-        <v>513.6297705593608</v>
+        <v>513.6297705593611</v>
       </c>
       <c r="N6" t="n">
-        <v>543.0896923213257</v>
+        <v>543.0896923213259</v>
       </c>
       <c r="O6" t="n">
-        <v>429.7344236024969</v>
+        <v>273.1433986128645</v>
       </c>
       <c r="P6" t="n">
-        <v>327.724945161262</v>
+        <v>327.7249451612621</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.254351742175928</v>
+        <v>165.845376731809</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>50.79264403054749</v>
+        <v>50.79264403054756</v>
       </c>
       <c r="L7" t="n">
-        <v>121.0844047435761</v>
+        <v>121.0844047435762</v>
       </c>
       <c r="M7" t="n">
-        <v>138.1605912476331</v>
+        <v>138.1605912476332</v>
       </c>
       <c r="N7" t="n">
-        <v>140.364952729095</v>
+        <v>140.3649527290951</v>
       </c>
       <c r="O7" t="n">
-        <v>113.4716762939911</v>
+        <v>113.4716762939912</v>
       </c>
       <c r="P7" t="n">
-        <v>73.33635702967824</v>
+        <v>73.33635702967831</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>319.494638585563</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>454.2807623269682</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>179.550058685651</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>462.0381242210148</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939961</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K12" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O12" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652754</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0158803980272</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
         <v>366.9313322820406</v>
@@ -35738,13 +35738,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
         <v>257.5646495407338</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L18" t="n">
-        <v>617.0987427660941</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M18" t="n">
         <v>366.9313322820406</v>
@@ -35981,7 +35981,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>176.9808853923503</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
         <v>257.5646495407338</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067504</v>
       </c>
       <c r="M20" t="n">
         <v>429.0050109457278</v>
@@ -36200,7 +36200,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378502</v>
@@ -36221,7 +36221,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>306.7545905945775</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
         <v>581.7100621118985</v>
@@ -36364,19 +36364,19 @@
         <v>774.4674446572013</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457278</v>
+        <v>878.5185444385603</v>
       </c>
       <c r="N23" t="n">
-        <v>857.3251587945944</v>
+        <v>877.9540974496157</v>
       </c>
       <c r="O23" t="n">
         <v>783.3830797577182</v>
       </c>
       <c r="P23" t="n">
-        <v>630.5444021352776</v>
+        <v>541.8135358194028</v>
       </c>
       <c r="Q23" t="n">
-        <v>395.5108088001604</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
         <v>20.29166330939907</v>
@@ -36437,7 +36437,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36452,10 +36452,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346374</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225028</v>
       </c>
       <c r="K26" t="n">
         <v>257.5646495407338</v>
@@ -36674,7 +36674,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36695,7 +36695,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225028</v>
       </c>
       <c r="K29" t="n">
         <v>257.5646495407338</v>
@@ -36853,7 +36853,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R29" t="n">
-        <v>20.2916633093987</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>20.2916633093987</v>
+        <v>20.29166330939823</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820406</v>
+        <v>382.5740326263896</v>
       </c>
       <c r="N33" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O33" t="n">
         <v>335.4246819961231</v>
@@ -37166,7 +37166,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,10 +37324,10 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.1958181402551</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939823</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L36" t="n">
-        <v>352.6335057535151</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820406</v>
@@ -37543,7 +37543,7 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K38" t="n">
-        <v>257.5646495407333</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L38" t="n">
         <v>356.8062301067509</v>
@@ -37564,7 +37564,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939823</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K39" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37634,16 +37634,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O39" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P39" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R39" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407329</v>
       </c>
       <c r="L41" t="n">
         <v>356.8062301067509</v>
@@ -37798,7 +37798,7 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.1958181402551</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
         <v>20.29166330939907</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820406</v>
+        <v>367.8869457703467</v>
       </c>
       <c r="N42" t="n">
         <v>391.197099592874</v>
@@ -37874,13 +37874,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
         <v>257.5646495407338</v>
@@ -38035,7 +38035,7 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402547</v>
       </c>
       <c r="R44" t="n">
         <v>20.29166330939907</v>
@@ -38096,7 +38096,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38111,7 +38111,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>443.0068759113671</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
         <v>326.5580100667037</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782604.9702521213</v>
+        <v>743182.9363879877</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9989620.414365165</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6280343.233667351</v>
+        <v>5991951.281419029</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9611366.420709481</v>
+        <v>9730266.308720946</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>104.5113366705984</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>312.9807318302827</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.80276983270129</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>230.2353788251919</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>121.4159166785323</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>309.0691651824502</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.62666189519208</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>67.00913094683244</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>12.27152410635478</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>89.48046147214212</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059013</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>135.5753427036747</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>37.38100496017431</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>81.10098877883046</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>313.8407158831998</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9017191597044</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>113.5103646250809</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>31.38108608416558</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1897,19 +1897,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>37.82173727365885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>17.25588147840169</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>168.1161921880586</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>178.7060423383815</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>35.19569619650051</v>
       </c>
       <c r="G22" t="n">
-        <v>66.33908184964064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>329.4707338994851</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>309.3243152307501</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>102.4139907313089</v>
+        <v>15.07437110675894</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>147.0290144562261</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>23.79925355567413</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1627038799792</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>205.1127822067381</v>
+        <v>230.8408473163254</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.4668884434683</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>113.9059869644538</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>162.6844916538656</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>30.9685570884466</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>15.07437110675892</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>173.5578851713661</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>67.88571179025713</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.38006817584838</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>81.72898226868531</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>126.7498226612768</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>285.3260765218149</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.9187566128688</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4751873309994</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>223.6073936510858</v>
       </c>
       <c r="D41" t="n">
-        <v>57.92556443677338</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>158.0933671656955</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>197.4149500449652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.14220416138295</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>8.559242828906296</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583426</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583426</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583426</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583426</v>
+        <v>1199.034848075707</v>
       </c>
       <c r="F2" t="n">
-        <v>159.5099885583426</v>
+        <v>788.0489432860995</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>370.0851351842864</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036446</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224644</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,49 +4570,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2574.506750938897</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2355.87208391096</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2102.110298549051</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.110298549051</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4731,37 +4731,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1717.512263598976</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.549746658564</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.549746658564</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1348.549746658564</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>937.5638418689568</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>519.6000337671437</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598976</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4889,7 +4889,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.7171392082162</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C11" t="n">
-        <v>850.7171392082162</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7171392082162</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665503</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2684.753612122915</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2353.690724779344</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2000.922069509229</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1627.45631124815</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>1237.316979272338</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990731</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>121.8264159807866</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0048420001851</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>623.4242400445569</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1001.525045698358</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1404.041699519502</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1750.046004555815</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.385797430378</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C13" t="n">
-        <v>888.4496145024714</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D13" t="n">
-        <v>738.3329750901356</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E13" t="n">
-        <v>590.4198815077425</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F13" t="n">
-        <v>443.5299340098321</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>306.5851434000597</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>158.2916353233891</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8833909048594</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877603</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282808</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302165</v>
+        <v>1889.535957219629</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302165</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="T13" t="n">
-        <v>1687.816392302165</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.816392302165</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.816392302165</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W13" t="n">
-        <v>1687.816392302165</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X13" t="n">
-        <v>1459.826841404148</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.034262260618</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1993.538426829656</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C14" t="n">
-        <v>1624.575909889244</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D14" t="n">
-        <v>1266.310211282494</v>
+        <v>563.5047572728743</v>
       </c>
       <c r="E14" t="n">
-        <v>880.5219586842497</v>
+        <v>563.5047572728743</v>
       </c>
       <c r="F14" t="n">
-        <v>469.5360538946421</v>
+        <v>563.5047572728743</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>148.4323071178707</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665502</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>838.937608855259</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350723</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>2380.138266893778</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>2380.138266893778</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y14" t="n">
-        <v>2380.138266893778</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990731</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>246.6565409677914</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>537.8115956207098</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2309936650815</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.331799318883</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1625.848453140027</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1971.85275817634</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2230.218651003075</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.986726597623</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>927.6351523931577</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="C16" t="n">
-        <v>758.6989694652508</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="D16" t="n">
-        <v>622.4346066776706</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="E16" t="n">
-        <v>474.5215130952774</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5215130952774</v>
+        <v>181.1690503969116</v>
       </c>
       <c r="G16" t="n">
-        <v>306.5851434000597</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>158.2916353233891</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485941</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877605</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282812</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302166</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.816392302166</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1687.816392302166</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1398.700787260358</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1398.700787260358</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.283617223397</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.283617223397</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.283617223397</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.335336125843</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C17" t="n">
-        <v>867.3728191854311</v>
+        <v>1257.336584543864</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>899.0708859371136</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>513.2826333388693</v>
       </c>
       <c r="F17" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W17" t="n">
-        <v>2386.540266426856</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X17" t="n">
-        <v>2013.074508165776</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.935176189965</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.4482993600903</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370026</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370026</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1920.850034779555</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1699.083419349081</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1409.980552474725</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>1155.296064268838</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>865.8788942318776</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>637.8893433338602</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y19" t="n">
-        <v>417.0967641903301</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
         <v>1320.35562273557</v>
@@ -5749,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>2839.523069976995</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>2839.523069976995</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.523069976995</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>821.9838344741152</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C22" t="n">
-        <v>821.9838344741152</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="D22" t="n">
-        <v>671.8671950617794</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="E22" t="n">
-        <v>523.9541014793863</v>
+        <v>102.0633247114768</v>
       </c>
       <c r="F22" t="n">
-        <v>377.0641539814759</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1513.842048484846</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1513.842048484846</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>1224.424878447885</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>1224.424878447885</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.632299304355</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1969.42314369238</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
         <v>1278.358723975039</v>
@@ -5980,37 +5980,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993394</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>3119.628073993394</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X23" t="n">
-        <v>2746.162315732314</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y23" t="n">
-        <v>2356.022983756502</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.3064969624544</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>708.3064969624544</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>708.3064969624544</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="E25" t="n">
-        <v>560.3934033800613</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="F25" t="n">
-        <v>413.5034558821509</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6177,22 +6177,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1446.505797040963</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1157.088627004002</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>929.0990761059845</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>708.3064969624544</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>257.0231712091046</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2731.767278738087</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2731.767278738087</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2731.767278738087</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.608663915319</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1735.608663915319</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
         <v>481.5845665871869</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3118.421193117517</v>
+        <v>2728.612103363309</v>
       </c>
       <c r="W29" t="n">
-        <v>2765.652537847403</v>
+        <v>2375.843448093195</v>
       </c>
       <c r="X29" t="n">
-        <v>2392.186779586323</v>
+        <v>2002.377689832115</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1612.238357856303</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218343</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1812.237995599146</v>
       </c>
       <c r="U31" t="n">
-        <v>1705.527932658019</v>
+        <v>1523.135128724789</v>
       </c>
       <c r="V31" t="n">
-        <v>1450.843444452132</v>
+        <v>1268.450640518902</v>
       </c>
       <c r="W31" t="n">
-        <v>1161.426274415171</v>
+        <v>979.0334704819413</v>
       </c>
       <c r="X31" t="n">
-        <v>1161.426274415171</v>
+        <v>751.043919583924</v>
       </c>
       <c r="Y31" t="n">
-        <v>1161.426274415171</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1252.833343223196</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="C32" t="n">
-        <v>1252.833343223196</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="D32" t="n">
-        <v>894.5676446164459</v>
+        <v>1396.478739875897</v>
       </c>
       <c r="E32" t="n">
-        <v>508.7793920182017</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>97.79348722859413</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>97.79348722859413</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>97.79348722859413</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.03827352421</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.57251526313</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.433183287318</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962485</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034578</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>3120.355548834272</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936255</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792725</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038042</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
         <v>1278.358723975039</v>
@@ -6967,22 +6967,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102164</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1640.204086189705</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C37" t="n">
-        <v>1471.267903261798</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>3103.839206178696</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>2814.73633930434</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>2560.051851098453</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>2270.634681061492</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>2042.645130163475</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y37" t="n">
-        <v>1821.852551019945</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796252</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392135</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D38" t="n">
-        <v>194.542240332463</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E38" t="n">
-        <v>194.542240332463</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>194.542240332463</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>194.542240332463</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1989.118339645846</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C40" t="n">
-        <v>1989.118339645846</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D40" t="n">
-        <v>1989.118339645846</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E40" t="n">
-        <v>1989.118339645846</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>1619.977161560774</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>1330.874294686418</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682807</v>
+        <v>1076.189806480531</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645846</v>
+        <v>786.77263644357</v>
       </c>
       <c r="X40" t="n">
-        <v>1989.118339645846</v>
+        <v>786.77263644357</v>
       </c>
       <c r="Y40" t="n">
-        <v>1989.118339645846</v>
+        <v>565.9800573000399</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796265</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>494.2972677909589</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
         <v>108.5090151927147</v>
@@ -7408,55 +7408,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>722.3614154301667</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.4669865852867</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>614.5308036573798</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>464.414164245044</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>464.414164245044</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>464.414164245044</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>296.711327619763</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>150.4941408376208</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1548.361223971664</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.676735765777</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.259565728817</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X46" t="n">
-        <v>1004.259565728817</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.4669865852867</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>224.0472258793183</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393209</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>97.95619053890903</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393206</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-4.429129912103985e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>309.2728333501966</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>10.94204093407444</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592655</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0375129458156</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.99979613043925</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.85360758190694</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>345.614306822221</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,19 +23181,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23226,13 +23226,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>158.0259745112518</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>238.7648811085537</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>296.7574771839115</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>30.68166329459089</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521086</v>
+        <v>51.55114770987304</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>213.50677560849</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>35.40025283421318</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>13.71375385850791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.51544363394734</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>375.4949596575458</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>311.4192314437541</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>148.7699267806265</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>82.87897977084333</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>149.0462161317535</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>110.2253518264307</v>
       </c>
       <c r="G22" t="n">
-        <v>99.68672640938759</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>35.80215787152247</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>39.91665348666288</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.61181752771934</v>
+        <v>150.9514371522693</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>147.5787499310944</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>303.9530049144608</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>34.45276913823317</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>122.6394762633968</v>
+        <v>96.91141115380952</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.36509173846898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.6429623117154</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>219.2458784183962</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.60837268447935</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>152.1724499918689</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>181.1251564493169</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>259.8665466798778</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>142.235404842364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>64.70498037788386</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>167.8579417260437</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>84.40502415665418</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>33.50229141006247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.0737619451698</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>141.6654981199217</v>
       </c>
       <c r="D41" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>61.45558211047367</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>167.8579417260424</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>290.3129182374927</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>13.21021624845514</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.6525953767066</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>793744.8013218084</v>
+        <v>793744.8013218082</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>793744.8013218084</v>
+        <v>793744.8013218082</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.9600428648</v>
+        <v>857372.2991474003</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.9600428647</v>
+        <v>857372.2991474003</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474003</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857372.2991474008</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857372.2991474007</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474004</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857372.2991474007</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857372.2991474007</v>
+        <v>857372.2991474004</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="C2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="C2" t="n">
-        <v>289152.6100157573</v>
-      </c>
       <c r="D2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460886</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>312157.9037460886</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
@@ -26340,19 +26340,19 @@
         <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709206</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502363</v>
+        <v>618960.3159503534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>142743.9810953026</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39153.48277254652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37809.6851683607</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>71376.38478147394</v>
       </c>
       <c r="C4" t="n">
-        <v>71376.38478147394</v>
+        <v>71376.38478147393</v>
       </c>
       <c r="D4" t="n">
         <v>71376.38478147394</v>
       </c>
       <c r="E4" t="n">
-        <v>9332.459500253122</v>
+        <v>5500.795347005331</v>
       </c>
       <c r="F4" t="n">
-        <v>9332.459500253119</v>
+        <v>5500.795347005331</v>
       </c>
       <c r="G4" t="n">
-        <v>5500.795347005323</v>
+        <v>5500.795347005322</v>
       </c>
       <c r="H4" t="n">
-        <v>5500.795347005314</v>
+        <v>5500.795347005322</v>
       </c>
       <c r="I4" t="n">
         <v>5500.795347005323</v>
@@ -26459,7 +26459,7 @@
         <v>5500.795347005323</v>
       </c>
       <c r="P4" t="n">
-        <v>5500.795347005323</v>
+        <v>5500.795347005306</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-455050.7320436704</v>
+        <v>-461119.1457894897</v>
       </c>
       <c r="C6" t="n">
-        <v>134917.1471708739</v>
+        <v>128848.733425055</v>
       </c>
       <c r="D6" t="n">
-        <v>134917.1471708741</v>
+        <v>128848.7334250548</v>
       </c>
       <c r="E6" t="n">
-        <v>-228178.8392731949</v>
+        <v>-361246.5421858926</v>
       </c>
       <c r="F6" t="n">
-        <v>240866.6164770413</v>
+        <v>257713.773764461</v>
       </c>
       <c r="G6" t="n">
-        <v>118445.9819672193</v>
+        <v>257713.773764461</v>
       </c>
       <c r="H6" t="n">
-        <v>261189.963062522</v>
+        <v>257713.773764461</v>
       </c>
       <c r="I6" t="n">
-        <v>261189.9630625221</v>
+        <v>257713.7737644607</v>
       </c>
       <c r="J6" t="n">
-        <v>84766.74386992898</v>
+        <v>81290.55457186792</v>
       </c>
       <c r="K6" t="n">
-        <v>261189.963062522</v>
+        <v>257713.7737644611</v>
       </c>
       <c r="L6" t="n">
-        <v>261189.9630625219</v>
+        <v>257713.7737644608</v>
       </c>
       <c r="M6" t="n">
-        <v>261189.9630625219</v>
+        <v>218560.2909919145</v>
       </c>
       <c r="N6" t="n">
-        <v>261189.9630625219</v>
+        <v>257713.7737644609</v>
       </c>
       <c r="O6" t="n">
-        <v>223380.2778941613</v>
+        <v>257713.7737644609</v>
       </c>
       <c r="P6" t="n">
-        <v>261189.963062522</v>
+        <v>257713.773764461</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980343</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26819,7 +26819,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809476</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952639</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>157.1141826477368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>157.1141826477376</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477368</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600135</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58853668998739</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411436</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105701</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728053</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959969</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246316</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363776</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329286</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905494</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609223</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>38.4173248718271</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122577</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193176</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>52.1453079592639</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781746</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195862</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991198</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279934</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609224</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926391</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781747</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>271.628476696163</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832974</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511185</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198255</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>68.56912541456785</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620186</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109103</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072161</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>349.4992980164779</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>485.0228751992524</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.2327364489848</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>179.186685840197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692127</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>271.6284766961631</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832975</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511186</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198258</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.6601607549767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>294.0960148009277</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898481</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743182.9363879877</v>
+        <v>776943.4557607449</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.6383038</v>
+        <v>9989620.414365165</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5991951.281419029</v>
+        <v>6280343.233667352</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9730266.308720946</v>
+        <v>9611366.420709481</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>332.4753533989242</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>312.9807318302827</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>70.80276983270129</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>230.2353788251919</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>328.1128473220161</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.127162662147</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>249.0654855425688</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3.62666189519208</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.00913094683244</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>222.093223191693</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.48046147214212</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.38100496017431</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>159.7299668240172</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>81.10098877883046</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>84.96795670435974</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.5103646250809</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>13.88675571163401</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>328.4875868554714</v>
       </c>
       <c r="F17" t="n">
-        <v>31.38108608416558</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>17.25588147840169</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369767</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>193.695902253083</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>178.7060423383815</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.19569619650051</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.17502158542683</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>166.1465464887763</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>309.3243152307501</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07437110675894</v>
+        <v>57.02146927219752</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>147.0290144562261</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>136.0140013379102</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>114.1627038799792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>99.45907034079602</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>153.0471678767959</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>230.8408473163254</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>113.9059869644538</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>177.4507143278949</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>162.6844916538656</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>19.68942351146622</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>15.07437110675892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>20.18624009875692</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>67.88571179025713</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>170.4803392703461</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>88.23797643592249</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>81.72898226868531</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>195.5565936082878</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>285.3260765218149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>18.2687961020401</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>114.4751873309994</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>223.6073936510858</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>40.3675969973681</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>34.70358683203006</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>158.0933671656955</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>177.6065387483031</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>58.92805047992029</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>8.559242828906296</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>1117.00488766947</v>
       </c>
       <c r="C2" t="n">
-        <v>1584.823100673951</v>
+        <v>748.0423707290586</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.823100673951</v>
+        <v>389.7766721223081</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.034848075707</v>
+        <v>389.7766721223081</v>
       </c>
       <c r="F2" t="n">
-        <v>788.0489432860995</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G2" t="n">
-        <v>370.0851351842864</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1503.604727733592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.521729839487</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.960741127172</v>
+        <v>1456.618771496443</v>
       </c>
       <c r="D5" t="n">
-        <v>857.6950425204218</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>712.5648202914485</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>712.5648202914485</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.521729839487</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296038</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1134.473993239632</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1658.820279285841</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1658.820279285841</v>
+        <v>1521.073833303754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1521.073833303754</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>512.2963347852319</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>512.2963347852319</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1221.525483338121</v>
+        <v>1832.08676331393</v>
       </c>
       <c r="C11" t="n">
-        <v>852.5629663977095</v>
+        <v>1463.124246373518</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2972677909589</v>
+        <v>1104.858547766768</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>838.9376088552599</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2222.226095289742</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>2222.226095289742</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.125323402243</v>
+        <v>1832.08676331393</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>537.8115956207105</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>845.2309936650822</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1971.852758176341</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.2149530574644</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>234.2149530574644</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>234.2149530574644</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574644</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>82.88339090485937</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1889.535957219629</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.850073046456</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.850073046456</v>
+        <v>1269.29622508089</v>
       </c>
       <c r="U13" t="n">
-        <v>1408.747206172099</v>
+        <v>980.1806200390827</v>
       </c>
       <c r="V13" t="n">
-        <v>1154.062717966212</v>
+        <v>725.4961318331958</v>
       </c>
       <c r="W13" t="n">
-        <v>864.6455479292516</v>
+        <v>436.0789617962352</v>
       </c>
       <c r="X13" t="n">
-        <v>636.6559970312343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8634178877041</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796247</v>
+        <v>1927.491329511244</v>
       </c>
       <c r="C14" t="n">
-        <v>921.7704558796247</v>
+        <v>1927.491329511244</v>
       </c>
       <c r="D14" t="n">
-        <v>563.5047572728743</v>
+        <v>1569.225630904494</v>
       </c>
       <c r="E14" t="n">
-        <v>563.5047572728743</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="F14" t="n">
-        <v>563.5047572728743</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G14" t="n">
-        <v>148.4323071178707</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>199.5143021373486</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>2611.322872124929</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>2611.322872124929</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2611.322872124929</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2280.259984781359</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>1927.491329511244</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>1927.491329511244</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>1927.491329511244</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.1690503969116</v>
+        <v>685.6185755237925</v>
       </c>
       <c r="C16" t="n">
-        <v>181.1690503969116</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="D16" t="n">
-        <v>181.1690503969116</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E16" t="n">
-        <v>181.1690503969116</v>
+        <v>368.7692990134925</v>
       </c>
       <c r="F16" t="n">
-        <v>181.1690503969116</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1673.789366330818</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1673.789366330818</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1384.67376128901</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>1384.67376128901</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>1095.256591252049</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>867.2670403540322</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8175152271513</v>
+        <v>867.2670403540322</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1626.299101484276</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C17" t="n">
-        <v>1257.336584543864</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="D17" t="n">
-        <v>899.0708859371136</v>
+        <v>1266.373013425681</v>
       </c>
       <c r="E17" t="n">
-        <v>513.2826333388693</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.038273524209</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>2403.038273524209</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y17" t="n">
-        <v>2012.898941548397</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.8553933260934</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>231.8553933260934</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>231.8553933260934</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>83.94229974370026</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>83.94229974370026</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696235</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260934</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.62132134232</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2828.826251643334</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W20" t="n">
-        <v>2828.826251643334</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>2455.360493382254</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.221161406442</v>
+        <v>2218.876689164177</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.9995076393838</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C22" t="n">
-        <v>102.0633247114768</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="D22" t="n">
-        <v>102.0633247114768</v>
+        <v>312.5687524002219</v>
       </c>
       <c r="E22" t="n">
-        <v>102.0633247114768</v>
+        <v>312.5687524002219</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>165.6788049023116</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046014</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676408</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696235</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.6479724696235</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1278.358723975039</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C23" t="n">
-        <v>1278.358723975039</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2428.563654276052</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2055.097896014972</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.958564039161</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6071,49 +6071,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260938</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260938</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D25" t="n">
-        <v>81.7387539137581</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E25" t="n">
-        <v>81.7387539137581</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F25" t="n">
-        <v>81.7387539137581</v>
+        <v>124.1095601414738</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6192,7 +6192,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8553933260938</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2196.097994299122</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C26" t="n">
-        <v>1827.13547735871</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D26" t="n">
-        <v>1468.86977875196</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E26" t="n">
-        <v>1083.081526153716</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F26" t="n">
-        <v>672.0956213641082</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>257.0231712091046</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6229,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X26" t="n">
-        <v>2972.837166339056</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y26" t="n">
-        <v>2582.697834363244</v>
+        <v>1892.184635123826</v>
       </c>
     </row>
     <row r="27">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>644.3338566427974</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>644.3338566427974</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
         <v>529.0179941377679</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>1161.740577577775</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W28" t="n">
-        <v>872.3234075408147</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X28" t="n">
-        <v>644.3338566427974</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y28" t="n">
-        <v>644.3338566427974</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1225.638517792182</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218343</v>
@@ -6463,22 +6463,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2728.612103363309</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2375.843448093195</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2002.377689832115</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y29" t="n">
-        <v>1612.238357856303</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,70 +6518,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>530.2513404403938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>361.3151575124869</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
         <v>361.3151575124869</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1812.237995599146</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1523.135128724789</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1268.450640518902</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>979.0334704819413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>751.043919583924</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y31" t="n">
-        <v>530.2513404403938</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1754.744438482648</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C32" t="n">
-        <v>1754.744438482648</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1396.478739875897</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6709,19 +6709,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2531.483610522581</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2141.34427854677</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>231.8553933260938</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C34" t="n">
-        <v>216.6287558445192</v>
+        <v>254.6050945713604</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>254.6050945713604</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>254.6050945713604</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1647.321240915451</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.358723975039</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
         <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2797.526171216464</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2797.526171216464</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.060412955384</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>2033.921080979572</v>
+        <v>1636.597933493125</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>463.6594280995014</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>463.6594280995014</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D37" t="n">
-        <v>463.6594280995014</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.3078929297411</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.208022973022</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,16 +7186,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
@@ -7210,16 +7210,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139987</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X38" t="n">
-        <v>2320.807863037144</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y38" t="n">
-        <v>2320.807863037144</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>384.3315924698002</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C40" t="n">
-        <v>384.3315924698002</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7362,22 +7362,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1619.977161560774</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1330.874294686418</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.189806480531</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>786.77263644357</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>786.77263644357</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>565.9800573000399</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1904.487375535336</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,13 +7423,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3174.539802633873</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2921.009325907709</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>2589.946438564139</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796416</v>
+        <v>2237.177783294024</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535336</v>
+        <v>1863.712025032944</v>
       </c>
       <c r="Y41" t="n">
-        <v>1904.487375535336</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.5121164321834</v>
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1767.604278224154</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V43" t="n">
-        <v>1478.501411349798</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W43" t="n">
-        <v>1478.501411349798</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.51186045178</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7654,46 +7654,46 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.0708164780106</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C46" t="n">
-        <v>679.1346335501037</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7839,19 +7839,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1505.196348657667</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1250.51186045178</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.71928130825</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747125</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747125</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>224.0472258793187</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-7.875987150772353e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-4.429129912103985e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74.40069234278724</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>10.94204093407444</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>96.44405126592655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168102</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>135.0375129458156</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>85.67132269877891</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.395835674444</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>116.2074062284388</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>345.614306822221</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,19 +23226,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>158.0259745112518</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>159.8371468805688</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.7574771839115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.55114770987304</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.97968856501993</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>213.50677560849</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>35.96484034942245</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.51544363394734</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>179.9114156754263</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>53.44278321679036</v>
       </c>
       <c r="F17" t="n">
-        <v>375.4949596575458</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.7699267806265</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>217.1504125601303</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>171.5769895179246</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>149.0462161317535</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.2253518264307</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>67.85078667360139</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>216.5872951747043</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>39.91665348666288</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>150.9514371522693</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>147.5787499310944</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>250.2239373181434</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.45276913823317</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>126.2505850482411</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>229.6866737866847</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>96.91141115380952</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6429623117154</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>41.13393902419992</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>219.2458784183962</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>366.5485151445874</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>152.1724499918689</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>125.2348079241743</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>259.8665466798778</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>215.7575993857075</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>79.00884466270534</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.70498037788386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>169.7162981627197</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>84.40502415665418</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>161.5631840798972</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>105.0737619451698</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>141.6654981199217</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>163.550373142252</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.9118861861823</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>61.45558211047367</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>233.3151869051503</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>290.3129182374927</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>131.3595915398102</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.6525953767066</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>793744.8013218085</v>
+        <v>793744.8013218082</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>793744.8013218082</v>
+        <v>793744.8013218084</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857372.2991474003</v>
+        <v>789187.9600428647</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857372.2991474003</v>
+        <v>789187.9600428647</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857372.2991474003</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474004</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474004</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857372.2991474007</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857372.2991474004</v>
+        <v>857372.2991474003</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474004</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857372.2991474004</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="C2" t="n">
+        <v>289152.6100157572</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="C2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="D2" t="n">
-        <v>289152.6100157574</v>
-      </c>
       <c r="E2" t="n">
+        <v>312157.9037460884</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312157.9037460886</v>
+      </c>
+      <c r="G2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="F2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="L2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="L2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="M2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="P2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503534</v>
+        <v>469045.4557502363</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>142743.9810953031</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254652</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>37809.68516836068</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>71376.38478147393</v>
       </c>
       <c r="D4" t="n">
-        <v>71376.38478147394</v>
+        <v>71376.38478147393</v>
       </c>
       <c r="E4" t="n">
-        <v>5500.795347005331</v>
+        <v>9332.459500253126</v>
       </c>
       <c r="F4" t="n">
-        <v>5500.795347005331</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="G4" t="n">
-        <v>5500.795347005322</v>
+        <v>5500.795347005307</v>
       </c>
       <c r="H4" t="n">
-        <v>5500.795347005322</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="I4" t="n">
         <v>5500.795347005323</v>
@@ -26459,7 +26459,7 @@
         <v>5500.795347005323</v>
       </c>
       <c r="P4" t="n">
-        <v>5500.795347005306</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26502,7 +26502,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
@@ -26511,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-461119.1457894897</v>
+        <v>-455657.5734182524</v>
       </c>
       <c r="C6" t="n">
-        <v>128848.733425055</v>
+        <v>134310.3057962919</v>
       </c>
       <c r="D6" t="n">
-        <v>128848.7334250548</v>
+        <v>134310.3057962922</v>
       </c>
       <c r="E6" t="n">
-        <v>-361246.5421858926</v>
+        <v>-228670.6541791254</v>
       </c>
       <c r="F6" t="n">
-        <v>257713.773764461</v>
+        <v>240374.801571111</v>
       </c>
       <c r="G6" t="n">
-        <v>257713.773764461</v>
+        <v>118098.363037413</v>
       </c>
       <c r="H6" t="n">
-        <v>257713.773764461</v>
+        <v>260842.3441327161</v>
       </c>
       <c r="I6" t="n">
-        <v>257713.7737644607</v>
+        <v>260842.3441327159</v>
       </c>
       <c r="J6" t="n">
-        <v>81290.55457186792</v>
+        <v>84419.12494012293</v>
       </c>
       <c r="K6" t="n">
-        <v>257713.7737644611</v>
+        <v>260842.3441327159</v>
       </c>
       <c r="L6" t="n">
-        <v>257713.7737644608</v>
+        <v>260842.344132716</v>
       </c>
       <c r="M6" t="n">
-        <v>218560.2909919145</v>
+        <v>260842.3441327159</v>
       </c>
       <c r="N6" t="n">
-        <v>257713.7737644609</v>
+        <v>260842.3441327158</v>
       </c>
       <c r="O6" t="n">
-        <v>257713.7737644609</v>
+        <v>223032.658964355</v>
       </c>
       <c r="P6" t="n">
-        <v>257713.773764461</v>
+        <v>260842.3441327158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980342</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>583.8233809809476</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.2096553952645</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477368</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477365</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>157.1141826477375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477368</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>610.0200662717137</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>689.7479871047166</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>7.408795266279933</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09458036510144609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>374.2536513017265</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>460.3349235081257</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>27.23671707198253</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>68.56912541456782</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>420.1870501413373</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>310.5246444892644</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>29.23273644898478</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>59.03458057320877</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37314,7 +37314,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
